--- a/APP_PERSONAS/src/test/resources/datadriven/eprepago/eprepago.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/eprepago/eprepago.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\e-prepago\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\eprepago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB31273-56F5-4B9B-9E89-EE809C4A17DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DF23D2-21BD-4807-97C4-AC2B87E314B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,6 @@
     <t>validarClave</t>
   </si>
   <si>
-    <t>opcionAutenticacion</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>EPREPAGO</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -143,17 +137,17 @@
     <t>Consultas</t>
   </si>
   <si>
-    <t>autotest27</t>
-  </si>
-  <si>
-    <t>autotest32</t>
+    <t>autotest28</t>
+  </si>
+  <si>
+    <t>userauto50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,8 +193,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,12 +217,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,13 +261,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -283,6 +277,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -563,7 +559,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M1" sqref="M1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -609,98 +605,92 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="12">
+        <v>30001024</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13">
-        <v>333333304</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12">
+        <v>93221453</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="13">
-        <v>93221452</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="M7" s="8"/>
+      <c r="M7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -726,67 +716,67 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/eprepago/eprepago.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/eprepago/eprepago.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\eprepago\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\eprepago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DF23D2-21BD-4807-97C4-AC2B87E314B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -141,12 +140,18 @@
   </si>
   <si>
     <t>userauto50</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>solicitareprepago10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -283,7 +288,7 @@
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,17 +560,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -688,6 +693,47 @@
       <c r="M3" s="3"/>
       <c r="N3" s="10"/>
       <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="12">
+        <v>93221453</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="7" spans="1:15">
       <c r="M7" s="7"/>
@@ -699,19 +745,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/APP_PERSONAS/src/test/resources/datadriven/eprepago/eprepago.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/eprepago/eprepago.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\eprepago\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosBCO\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\eprepago\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEBC6B4-276D-4689-9EEA-C1A51CA5770D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -139,19 +140,19 @@
     <t>autotest28</t>
   </si>
   <si>
-    <t>userauto50</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>solicitareprepago10</t>
+  </si>
+  <si>
+    <t>pruebauser01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -286,9 +287,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,17 +561,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.3"/>
   <cols>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -623,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -696,7 +697,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="12">
         <v>93221453</v>
@@ -705,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -745,19 +746,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
